--- a/data/trans_orig/IP07A11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A11-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C92B4F88-D5D0-43CC-8A0D-C88915C4290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD1D9DF-B087-42D1-818D-C093108F0723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{853D4B2D-EEBB-4352-8531-D7DDDE49FF76}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E715F432-BA07-4E11-A30F-101CCCCF9A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="457">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>49,44%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
   </si>
   <si>
     <t>45,61%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>47,46%</t>
   </si>
   <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>41,97%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
   </si>
   <si>
     <t>41,91%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,1261 +136,1273 @@
     <t>7,15%</t>
   </si>
   <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -1808,7 +1820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E407D5-6E88-40BB-9324-D91742E12D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C58F8C2-A30C-4269-A13D-964E86990FC9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2294,7 +2306,7 @@
         <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>64</v>
@@ -2444,13 +2456,13 @@
         <v>680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2459,13 +2471,13 @@
         <v>462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2474,13 +2486,13 @@
         <v>1142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,7 +2548,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2548,13 +2560,13 @@
         <v>24861</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -2563,13 +2575,13 @@
         <v>19268</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -2578,13 +2590,13 @@
         <v>44129</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2611,13 @@
         <v>28281</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -2614,13 +2626,13 @@
         <v>31622</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -2629,13 +2641,13 @@
         <v>59903</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2662,13 @@
         <v>7252</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -2665,13 +2677,13 @@
         <v>14601</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -2680,13 +2692,13 @@
         <v>21853</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,7 +2719,7 @@
         <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2716,13 +2728,13 @@
         <v>1363</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2731,13 +2743,13 @@
         <v>1363</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2770,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2773,7 +2785,7 @@
         <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2788,7 +2800,7 @@
         <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2868,13 @@
         <v>138268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -2871,13 +2883,13 @@
         <v>109337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>372</v>
@@ -2886,13 +2898,13 @@
         <v>247605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2919,13 @@
         <v>159796</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>229</v>
@@ -2922,13 +2934,13 @@
         <v>155939</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="M23" s="7">
         <v>468</v>
@@ -2937,13 +2949,13 @@
         <v>315735</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2970,13 @@
         <v>43658</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -2973,13 +2985,13 @@
         <v>51032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>142</v>
@@ -2988,13 +3000,13 @@
         <v>94690</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3021,13 @@
         <v>3186</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3024,13 +3036,13 @@
         <v>4221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3039,13 +3051,13 @@
         <v>7407</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3072,13 @@
         <v>680</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3075,13 +3087,13 @@
         <v>462</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3090,13 +3102,13 @@
         <v>1142</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3164,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC830D2-1612-400A-9181-5FECC984341B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1DC96-B3F6-4323-BCF4-EE775DDB19F7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3200,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3295,13 +3307,13 @@
         <v>26663</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3310,13 +3322,13 @@
         <v>28825</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>79</v>
@@ -3325,13 +3337,13 @@
         <v>55488</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3358,13 @@
         <v>13585</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -3361,13 +3373,13 @@
         <v>18454</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3376,13 +3388,13 @@
         <v>32039</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3409,13 @@
         <v>4374</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3412,13 +3424,13 @@
         <v>5005</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -3427,13 +3439,13 @@
         <v>9380</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3460,13 @@
         <v>1231</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3463,13 +3475,13 @@
         <v>798</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3478,13 +3490,13 @@
         <v>2029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3517,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3520,7 +3532,7 @@
         <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3535,7 +3547,7 @@
         <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3615,13 @@
         <v>125979</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>152</v>
@@ -3618,13 +3630,13 @@
         <v>107041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>333</v>
@@ -3633,13 +3645,13 @@
         <v>233020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3666,13 @@
         <v>83503</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -3669,13 +3681,13 @@
         <v>80814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>240</v>
@@ -3684,13 +3696,13 @@
         <v>164317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3717,13 @@
         <v>14672</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -3720,13 +3732,13 @@
         <v>16997</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -3735,13 +3747,13 @@
         <v>31669</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3768,13 @@
         <v>3274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3771,13 +3783,13 @@
         <v>1292</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3789,10 +3801,10 @@
         <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3819,13 @@
         <v>1294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3828,7 +3840,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3837,13 +3849,13 @@
         <v>1294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3911,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3911,13 +3923,13 @@
         <v>28102</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -3926,13 +3938,13 @@
         <v>36906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -3941,13 +3953,13 @@
         <v>65007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3974,13 @@
         <v>26644</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3977,13 +3989,13 @@
         <v>23379</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -3992,13 +4004,13 @@
         <v>50023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4025,13 @@
         <v>3187</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -4028,13 +4040,13 @@
         <v>3134</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4043,13 +4055,13 @@
         <v>6321</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>263</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4082,7 @@
         <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4085,7 +4097,7 @@
         <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4100,7 +4112,7 @@
         <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4133,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4136,7 +4148,7 @@
         <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4151,7 +4163,7 @@
         <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4231,13 @@
         <v>180743</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>245</v>
@@ -4234,13 +4246,13 @@
         <v>172772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>506</v>
@@ -4249,13 +4261,13 @@
         <v>353515</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4282,13 @@
         <v>123732</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>175</v>
@@ -4285,13 +4297,13 @@
         <v>122647</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>356</v>
@@ -4300,13 +4312,13 @@
         <v>246379</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4333,13 @@
         <v>22234</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -4336,13 +4348,13 @@
         <v>25136</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -4351,13 +4363,13 @@
         <v>47369</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4384,13 @@
         <v>4504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4387,13 +4399,13 @@
         <v>2090</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4402,13 +4414,13 @@
         <v>6595</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4435,13 @@
         <v>1294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4444,7 +4456,7 @@
         <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4453,13 +4465,13 @@
         <v>1294</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4527,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDD5984-AD7F-4D31-BED5-FAE0864B3F2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0D181B-6062-4E60-9F39-869CEC366744}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4551,7 +4563,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4658,13 +4670,13 @@
         <v>15105</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4673,13 +4685,13 @@
         <v>14937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -4688,13 +4700,13 @@
         <v>30043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4721,13 @@
         <v>17999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4724,13 +4736,13 @@
         <v>11488</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -4739,13 +4751,13 @@
         <v>29486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4772,13 @@
         <v>3534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4775,13 +4787,13 @@
         <v>4761</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -4790,13 +4802,13 @@
         <v>8295</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,7 +4829,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4826,13 +4838,13 @@
         <v>628</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4841,13 +4853,13 @@
         <v>628</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4880,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4883,7 +4895,7 @@
         <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4898,7 +4910,7 @@
         <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4978,13 @@
         <v>129587</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>178</v>
@@ -4981,13 +4993,13 @@
         <v>122598</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>354</v>
@@ -4996,13 +5008,13 @@
         <v>252185</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5029,13 @@
         <v>93603</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -5032,13 +5044,13 @@
         <v>89360</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>255</v>
@@ -5047,13 +5059,13 @@
         <v>182963</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5080,13 @@
         <v>19250</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -5083,13 +5095,13 @@
         <v>31184</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>72</v>
@@ -5098,13 +5110,13 @@
         <v>50434</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5131,13 @@
         <v>3532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5134,13 +5146,13 @@
         <v>5115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5149,13 +5161,13 @@
         <v>8647</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5182,13 @@
         <v>690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5185,13 +5197,13 @@
         <v>1684</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5206,7 +5218,7 @@
         <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,7 +5274,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5274,13 +5286,13 @@
         <v>43221</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -5289,13 +5301,13 @@
         <v>37240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -5304,13 +5316,13 @@
         <v>80461</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5337,13 @@
         <v>25681</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -5340,13 +5352,13 @@
         <v>26593</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -5355,13 +5367,13 @@
         <v>52274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5388,13 @@
         <v>7974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5391,13 +5403,13 @@
         <v>9774</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -5406,13 +5418,13 @@
         <v>17748</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5439,13 @@
         <v>636</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5442,13 +5454,13 @@
         <v>792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5457,13 +5469,13 @@
         <v>1427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5490,13 @@
         <v>549</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5499,7 +5511,7 @@
         <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5508,13 +5520,13 @@
         <v>549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5594,13 @@
         <v>187914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>252</v>
@@ -5597,13 +5609,13 @@
         <v>174776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -5612,13 +5624,13 @@
         <v>362689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5645,13 @@
         <v>137283</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
@@ -5648,13 +5660,13 @@
         <v>127441</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>369</v>
@@ -5663,13 +5675,13 @@
         <v>264724</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5696,13 @@
         <v>30759</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
@@ -5699,13 +5711,13 @@
         <v>45719</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -5714,13 +5726,13 @@
         <v>76477</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>72</v>
+        <v>440</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5747,13 @@
         <v>4167</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5750,13 +5762,13 @@
         <v>6536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -5765,13 +5777,13 @@
         <v>10703</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5798,13 @@
         <v>1239</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5801,13 +5813,13 @@
         <v>1684</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5816,13 +5828,13 @@
         <v>2923</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +5890,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD1D9DF-B087-42D1-818D-C093108F0723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E62994-1860-4324-8D2E-F4BBC23BBE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E715F432-BA07-4E11-A30F-101CCCCF9A0B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{28E62932-5D4B-46A4-90C5-3314A7741BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="454">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1213 +73,1216 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
     <t>49,44%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
   </si>
   <si>
     <t>47,46%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
   </si>
   <si>
     <t>41,91%</t>
   </si>
   <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
     <t>34,68%</t>
   </si>
   <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -1288,127 +1291,115 @@
     <t>1,81%</t>
   </si>
   <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
     <t>52,0%</t>
   </si>
   <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
   </si>
   <si>
     <t>50,55%</t>
   </si>
   <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
   </si>
   <si>
     <t>36,89%</t>
   </si>
   <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>2,34%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,15%</t>
+    <t>0,1%</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C58F8C2-A30C-4269-A13D-964E86990FC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CEAD23-38A8-4BDD-93DF-974C112E36A3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1938,10 +1929,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>23350</v>
+        <v>23114</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1953,10 +1944,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>23114</v>
+        <v>23350</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1989,10 +1980,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>19824</v>
+        <v>21210</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2004,10 +1995,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>21210</v>
+        <v>19824</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2040,10 +2031,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>3376</v>
+        <v>5617</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2055,10 +2046,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>5617</v>
+        <v>3376</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2094,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>680</v>
+        <v>733</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2109,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>733</v>
+        <v>680</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2127,7 +2118,7 @@
         <v>1413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
@@ -2193,25 +2184,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50674</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50674</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -2246,10 +2237,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7">
-        <v>90056</v>
+        <v>66955</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>54</v>
@@ -2261,10 +2252,10 @@
         <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="I10" s="7">
-        <v>66955</v>
+        <v>90056</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>57</v>
@@ -2297,34 +2288,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7">
-        <v>111690</v>
+        <v>103107</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="I11" s="7">
-        <v>103107</v>
+        <v>111690</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>321</v>
@@ -2333,13 +2324,13 @@
         <v>214798</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,34 +2339,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>46</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30814</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="7">
         <v>50</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>33030</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="7">
-        <v>46</v>
-      </c>
-      <c r="I12" s="7">
-        <v>30814</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>96</v>
@@ -2384,13 +2375,13 @@
         <v>63845</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,34 +2390,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2125</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2506</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2125</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2435,13 +2426,13 @@
         <v>4631</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,31 +2444,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>680</v>
+        <v>462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>462</v>
+        <v>680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2486,13 +2477,13 @@
         <v>1142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,25 +2492,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>304</v>
+      </c>
+      <c r="D15" s="7">
+        <v>203463</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7">
         <v>359</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237963</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>304</v>
-      </c>
-      <c r="I15" s="7">
-        <v>203463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>52</v>
@@ -2548,40 +2539,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7">
+        <v>19268</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="7">
         <v>37</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>24861</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="7">
-        <v>28</v>
-      </c>
-      <c r="I16" s="7">
-        <v>19268</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -2590,13 +2581,13 @@
         <v>44129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,34 +2596,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7">
+        <v>31622</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="7">
         <v>41</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>28281</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="7">
-        <v>45</v>
-      </c>
-      <c r="I17" s="7">
-        <v>31622</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -2641,13 +2632,13 @@
         <v>59903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,34 +2647,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7">
+        <v>14601</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="7">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7252</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="7">
-        <v>21</v>
-      </c>
-      <c r="I18" s="7">
-        <v>14601</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -2692,13 +2683,13 @@
         <v>21853</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,34 +2698,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1363</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1363</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2743,13 +2734,13 @@
         <v>1363</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,7 +2761,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2800,7 +2791,7 @@
         <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,25 +2800,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>52</v>
@@ -2862,34 +2853,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>164</v>
+      </c>
+      <c r="D22" s="7">
+        <v>109337</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="7">
         <v>208</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>138268</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="7">
-        <v>164</v>
-      </c>
-      <c r="I22" s="7">
-        <v>109337</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>372</v>
@@ -2898,13 +2889,13 @@
         <v>247605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,34 +2904,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>229</v>
+      </c>
+      <c r="D23" s="7">
+        <v>155939</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="7">
         <v>239</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>159796</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="7">
-        <v>229</v>
-      </c>
-      <c r="I23" s="7">
-        <v>155939</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>468</v>
@@ -2949,13 +2940,13 @@
         <v>315735</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,34 +2955,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>76</v>
+      </c>
+      <c r="D24" s="7">
+        <v>51032</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="7">
         <v>66</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>43658</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="7">
-        <v>76</v>
-      </c>
-      <c r="I24" s="7">
-        <v>51032</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>142</v>
@@ -3000,13 +2991,13 @@
         <v>94690</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,34 +3006,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4221</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3186</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4221</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3051,13 +3042,13 @@
         <v>7407</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,31 +3060,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>680</v>
+        <v>462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>462</v>
+        <v>680</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3102,13 +3093,13 @@
         <v>1142</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,25 +3108,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>476</v>
+      </c>
+      <c r="D27" s="7">
+        <v>320991</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>345587</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>476</v>
-      </c>
-      <c r="I27" s="7">
-        <v>320991</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>52</v>
@@ -3164,7 +3155,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1DC96-B3F6-4323-BCF4-EE775DDB19F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D78981-6990-46FE-81B6-D9A81DE9ADFB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3200,7 +3191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3301,34 +3292,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28825</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="7">
         <v>38</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>26663</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="7">
-        <v>41</v>
-      </c>
-      <c r="I4" s="7">
-        <v>28825</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>79</v>
@@ -3337,13 +3328,13 @@
         <v>55488</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,34 +3343,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18454</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="7">
         <v>19</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>13585</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="7">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18454</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3388,13 +3379,13 @@
         <v>32039</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,31 +3397,31 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>4374</v>
+        <v>5005</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>5005</v>
+        <v>4374</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -3439,13 +3430,13 @@
         <v>9380</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,34 +3445,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1231</v>
+        <v>798</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>798</v>
+        <v>1231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3490,13 +3481,13 @@
         <v>2029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,7 +3508,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3532,7 +3523,7 @@
         <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3547,7 +3538,7 @@
         <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,25 +3547,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -3609,34 +3600,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>152</v>
+      </c>
+      <c r="D10" s="7">
+        <v>107041</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="7">
         <v>181</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>125979</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="7">
-        <v>152</v>
-      </c>
-      <c r="I10" s="7">
-        <v>107041</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>333</v>
@@ -3645,13 +3636,13 @@
         <v>233020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,34 +3651,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>116</v>
+      </c>
+      <c r="D11" s="7">
+        <v>80814</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="7">
         <v>124</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>83503</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11" s="7">
-        <v>116</v>
-      </c>
-      <c r="I11" s="7">
-        <v>80814</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>240</v>
@@ -3696,13 +3687,13 @@
         <v>164317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,34 +3702,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16997</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="7">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>14672</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>16997</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -3747,13 +3738,13 @@
         <v>31669</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,34 +3753,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1292</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3274</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1292</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3798,13 +3789,13 @@
         <v>4566</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,34 +3804,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1294</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3849,13 +3840,13 @@
         <v>1294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,25 +3855,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>295</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206144</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>228723</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>295</v>
-      </c>
-      <c r="I15" s="7">
-        <v>206144</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>52</v>
@@ -3911,40 +3902,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36906</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="7">
         <v>42</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>28102</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H16" s="7">
-        <v>52</v>
-      </c>
-      <c r="I16" s="7">
-        <v>36906</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -3953,13 +3944,13 @@
         <v>65007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,34 +3959,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23379</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" s="7">
         <v>38</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>26644</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H17" s="7">
-        <v>32</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23379</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4004,13 +3995,13 @@
         <v>50023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,34 +4010,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3187</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3134</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4055,13 +4046,13 @@
         <v>6321</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,7 +4073,7 @@
         <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4097,7 +4088,7 @@
         <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4112,7 +4103,7 @@
         <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4124,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4148,7 +4139,7 @@
         <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4163,7 +4154,7 @@
         <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,25 +4163,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>52</v>
@@ -4225,34 +4216,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>245</v>
+      </c>
+      <c r="D22" s="7">
+        <v>172772</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" s="7">
         <v>261</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>180743</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H22" s="7">
-        <v>245</v>
-      </c>
-      <c r="I22" s="7">
-        <v>172772</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>506</v>
@@ -4261,13 +4252,13 @@
         <v>353515</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,34 +4267,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>175</v>
+      </c>
+      <c r="D23" s="7">
+        <v>122647</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="7">
         <v>181</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>123732</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H23" s="7">
-        <v>175</v>
-      </c>
-      <c r="I23" s="7">
-        <v>122647</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>356</v>
@@ -4312,13 +4303,13 @@
         <v>246379</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,34 +4318,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7">
+        <v>25136</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H24" s="7">
         <v>33</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>22234</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H24" s="7">
-        <v>35</v>
-      </c>
-      <c r="I24" s="7">
-        <v>25136</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -4363,13 +4354,13 @@
         <v>47369</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,34 +4369,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2090</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4504</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2090</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4414,13 +4405,13 @@
         <v>6595</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,34 +4420,34 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1294</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4465,13 +4456,13 @@
         <v>1294</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,25 +4471,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>458</v>
+      </c>
+      <c r="D27" s="7">
+        <v>322645</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>332508</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>458</v>
-      </c>
-      <c r="I27" s="7">
-        <v>322645</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>52</v>
@@ -4527,7 +4518,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4546,7 +4537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0D181B-6062-4E60-9F39-869CEC366744}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DD8F0A-0172-4A3D-B409-547A16E088F9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4563,7 +4554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4667,31 +4658,31 @@
         <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>15105</v>
+        <v>14937</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>14937</v>
+        <v>15105</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -4700,13 +4691,13 @@
         <v>30043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,34 +4706,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11488</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="7">
         <v>24</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>17999</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H5" s="7">
-        <v>17</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11488</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -4751,13 +4742,13 @@
         <v>29486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,34 +4757,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4761</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3534</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4761</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -4802,13 +4793,13 @@
         <v>8295</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,34 +4808,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>628</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>628</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4853,13 +4844,13 @@
         <v>628</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,7 +4871,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4895,7 +4886,7 @@
         <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4910,7 +4901,7 @@
         <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,25 +4910,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -4972,25 +4963,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>178</v>
+      </c>
+      <c r="D10" s="7">
+        <v>122598</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="7">
         <v>176</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>129587</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H10" s="7">
-        <v>178</v>
-      </c>
-      <c r="I10" s="7">
-        <v>122598</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>343</v>
@@ -5023,10 +5014,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="7">
-        <v>93603</v>
+        <v>89360</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>349</v>
@@ -5038,10 +5029,10 @@
         <v>351</v>
       </c>
       <c r="H11" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I11" s="7">
-        <v>89360</v>
+        <v>93603</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>352</v>
@@ -5074,10 +5065,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>19250</v>
+        <v>31184</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>358</v>
@@ -5089,10 +5080,10 @@
         <v>360</v>
       </c>
       <c r="H12" s="7">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7">
-        <v>31184</v>
+        <v>19250</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>361</v>
@@ -5125,13 +5116,13 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>3532</v>
+        <v>5115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>367</v>
@@ -5140,19 +5131,19 @@
         <v>368</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>5115</v>
+        <v>3532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5161,10 +5152,10 @@
         <v>8647</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>372</v>
@@ -5176,10 +5167,10 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>690</v>
+        <v>1684</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>373</v>
@@ -5191,10 +5182,10 @@
         <v>374</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1684</v>
+        <v>690</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>375</v>
@@ -5227,25 +5218,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>359</v>
+      </c>
+      <c r="D15" s="7">
+        <v>249942</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7">
         <v>337</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>246662</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>359</v>
-      </c>
-      <c r="I15" s="7">
-        <v>249942</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>52</v>
@@ -5274,16 +5265,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>43221</v>
+        <v>37240</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>380</v>
@@ -5295,10 +5286,10 @@
         <v>382</v>
       </c>
       <c r="H16" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>37240</v>
+        <v>43221</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>383</v>
@@ -5331,10 +5322,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>25681</v>
+        <v>26593</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>389</v>
@@ -5346,19 +5337,19 @@
         <v>391</v>
       </c>
       <c r="H17" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>26593</v>
+        <v>25681</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -5367,13 +5358,13 @@
         <v>52274</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,34 +5373,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9774</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H18" s="7">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7974</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9774</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -5418,13 +5409,13 @@
         <v>17748</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,31 +5427,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>636</v>
+        <v>792</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>792</v>
+        <v>636</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5469,13 +5460,13 @@
         <v>1427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,34 +5475,34 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>549</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5520,13 +5511,13 @@
         <v>549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,25 +5526,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>52</v>
@@ -5588,34 +5579,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>252</v>
+      </c>
+      <c r="D22" s="7">
+        <v>174776</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H22" s="7">
         <v>257</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>187914</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H22" s="7">
-        <v>252</v>
-      </c>
-      <c r="I22" s="7">
-        <v>174776</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -5624,13 +5615,13 @@
         <v>362689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,34 +5630,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>181</v>
+      </c>
+      <c r="D23" s="7">
+        <v>127441</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H23" s="7">
         <v>188</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>137283</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H23" s="7">
-        <v>181</v>
-      </c>
-      <c r="I23" s="7">
-        <v>127441</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>369</v>
@@ -5675,13 +5666,13 @@
         <v>264724</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,34 +5681,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>65</v>
+      </c>
+      <c r="D24" s="7">
+        <v>45719</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H24" s="7">
         <v>43</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>30759</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H24" s="7">
-        <v>65</v>
-      </c>
-      <c r="I24" s="7">
-        <v>45719</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -5726,13 +5717,13 @@
         <v>76477</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,31 +5732,31 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6536</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4167</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H25" s="7">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6536</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>447</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>448</v>
@@ -5780,10 +5771,10 @@
         <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,31 +5786,31 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1239</v>
+        <v>1684</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>237</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>240</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1684</v>
+        <v>1239</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5828,13 +5819,13 @@
         <v>2923</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,25 +5834,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>509</v>
+      </c>
+      <c r="D27" s="7">
+        <v>356155</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7">
         <v>496</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>361361</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>509</v>
-      </c>
-      <c r="I27" s="7">
-        <v>356155</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>52</v>
@@ -5890,7 +5881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
